--- a/realtime_shop_data.xlsx
+++ b/realtime_shop_data.xlsx
@@ -110,9 +110,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이비가짬봉 용전점</t>
-  </si>
-  <si>
     <t>수타애반하다</t>
   </si>
   <si>
@@ -185,9 +182,6 @@
     <t>나나나카페</t>
   </si>
   <si>
-    <t>대전광역시 동구 계족로 509</t>
-  </si>
-  <si>
     <t>대전 동구 옥천로 136-15 1층</t>
   </si>
   <si>
@@ -260,9 +254,6 @@
     <t>대전 동구 가양로80번길 65</t>
   </si>
   <si>
-    <t>0426247484</t>
-  </si>
-  <si>
     <t>0422860335</t>
   </si>
   <si>
@@ -335,9 +326,6 @@
     <t>0426360105</t>
   </si>
   <si>
-    <t>매일 10:00~21:00</t>
-  </si>
-  <si>
     <t>매일 11:30~14:00</t>
   </si>
   <si>
@@ -405,9 +393,6 @@
   </si>
   <si>
     <t>매일 12:00 - 22:00</t>
-  </si>
-  <si>
-    <t>21:00에 영업 종료</t>
   </si>
   <si>
     <t>20:00에 영업 종료</t>
@@ -564,11 +549,6 @@
   </si>
   <si>
     <t>NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.ebiga.co.kr
-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -601,6 +581,32 @@
   </si>
   <si>
     <t>첫째주 셋째주 금요일 휴무,매주 토요일 휴무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짬뽕 김서방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대전광역시 동구 동서대로1683번길 33-20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0423354688</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매일 11:30~20:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:00~17:00 브레이크 타임
+19:30 라스트오더</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">대전 최고의 맛집 짬뽕 김서방
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -910,9 +916,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -950,6 +953,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1236,8 +1242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Y22" sqref="Y22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1334,32 +1340,32 @@
         <v>3148623662</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="F2" s="12">
+        <v>36.350272093501601</v>
+      </c>
+      <c r="G2" s="12">
+        <v>127.435119232635</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="12">
-        <v>36.357233177110601</v>
-      </c>
-      <c r="G2" s="12">
-        <v>127.432525511107</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="L2">
         <v>1</v>
       </c>
@@ -1372,16 +1378,16 @@
       <c r="O2">
         <v>1</v>
       </c>
-      <c r="P2" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q2" s="31" t="s">
-        <v>166</v>
+      <c r="P2" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q2" s="30" t="s">
+        <v>172</v>
       </c>
       <c r="R2" t="s">
-        <v>165</v>
-      </c>
-      <c r="S2" s="30">
+        <v>160</v>
+      </c>
+      <c r="S2" s="29">
         <v>44617.740624999999</v>
       </c>
       <c r="T2">
@@ -1399,13 +1405,13 @@
         <v>1453100194</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="28" t="s">
-        <v>139</v>
+        <v>21</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>134</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F3" s="13">
         <v>36.316116257090997</v>
@@ -1414,16 +1420,16 @@
         <v>127.45544281986101</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -1437,16 +1443,16 @@
       <c r="O3">
         <v>1</v>
       </c>
-      <c r="P3" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q3" s="32" t="s">
-        <v>167</v>
+      <c r="P3" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q3" s="31" t="s">
+        <v>161</v>
       </c>
       <c r="R3" t="s">
-        <v>165</v>
-      </c>
-      <c r="S3" s="30">
+        <v>160</v>
+      </c>
+      <c r="S3" s="29">
         <v>44618.740624942133</v>
       </c>
       <c r="T3">
@@ -1464,13 +1470,13 @@
         <v>4603301005</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>139</v>
+        <v>22</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>134</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F4" s="13">
         <v>36.348425222921598</v>
@@ -1479,16 +1485,16 @@
         <v>127.450795402144</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -1502,16 +1508,16 @@
       <c r="O4">
         <v>1</v>
       </c>
-      <c r="P4" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q4" s="24" t="s">
+      <c r="P4" s="19" t="s">
         <v>165</v>
       </c>
+      <c r="Q4" s="23" t="s">
+        <v>160</v>
+      </c>
       <c r="R4" t="s">
-        <v>165</v>
-      </c>
-      <c r="S4" s="30">
+        <v>160</v>
+      </c>
+      <c r="S4" s="29">
         <v>44619.740624942133</v>
       </c>
       <c r="T4">
@@ -1529,13 +1535,13 @@
         <v>8903300978</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>139</v>
+        <v>23</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>134</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F5" s="13">
         <v>36.3443006888808</v>
@@ -1544,16 +1550,16 @@
         <v>127.44699829989</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1567,16 +1573,16 @@
       <c r="O5">
         <v>1</v>
       </c>
-      <c r="P5" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q5" s="24" t="s">
-        <v>165</v>
+      <c r="P5" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q5" s="23" t="s">
+        <v>160</v>
       </c>
       <c r="R5" t="s">
-        <v>165</v>
-      </c>
-      <c r="S5" s="30">
+        <v>160</v>
+      </c>
+      <c r="S5" s="29">
         <v>44620.740624942133</v>
       </c>
       <c r="T5">
@@ -1594,13 +1600,13 @@
         <v>3060158426</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>139</v>
+        <v>24</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>134</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F6" s="13">
         <v>36.345991948195703</v>
@@ -1609,16 +1615,16 @@
         <v>127.447415435472</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -1632,16 +1638,16 @@
       <c r="O6">
         <v>1</v>
       </c>
-      <c r="P6" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q6" s="24" t="s">
-        <v>165</v>
+      <c r="P6" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q6" s="23" t="s">
+        <v>160</v>
       </c>
       <c r="R6" t="s">
-        <v>165</v>
-      </c>
-      <c r="S6" s="30">
+        <v>160</v>
+      </c>
+      <c r="S6" s="29">
         <v>44621.740624942133</v>
       </c>
       <c r="T6">
@@ -1659,13 +1665,13 @@
         <v>4510301421</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>140</v>
+        <v>25</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>135</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F7" s="13">
         <v>36.307034796067597</v>
@@ -1674,16 +1680,16 @@
         <v>127.45798878102801</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1697,16 +1703,16 @@
       <c r="O7">
         <v>1</v>
       </c>
-      <c r="P7" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q7" s="25" t="s">
-        <v>132</v>
+      <c r="P7" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q7" s="24" t="s">
+        <v>127</v>
       </c>
       <c r="R7" t="s">
-        <v>165</v>
-      </c>
-      <c r="S7" s="30">
+        <v>160</v>
+      </c>
+      <c r="S7" s="29">
         <v>44622.740624942133</v>
       </c>
       <c r="T7">
@@ -1724,13 +1730,13 @@
         <v>3773100898</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>140</v>
+        <v>26</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>135</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F8" s="13">
         <v>36.315795095348598</v>
@@ -1739,39 +1745,39 @@
         <v>127.459412299799</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q8" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="R8" t="s">
         <v>160</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-      <c r="P8" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q8" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="R8" t="s">
-        <v>165</v>
-      </c>
-      <c r="S8" s="30">
+      <c r="S8" s="29">
         <v>44623.740624942133</v>
       </c>
       <c r="T8">
@@ -1789,13 +1795,13 @@
         <v>4710900689</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>140</v>
+        <v>27</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>135</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F9" s="13">
         <v>36.3382612287566</v>
@@ -1804,16 +1810,16 @@
         <v>127.451019294483</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1827,16 +1833,16 @@
       <c r="O9">
         <v>1</v>
       </c>
-      <c r="P9" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q9" s="24" t="s">
-        <v>133</v>
+      <c r="P9" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q9" s="23" t="s">
+        <v>128</v>
       </c>
       <c r="R9" t="s">
-        <v>165</v>
-      </c>
-      <c r="S9" s="30">
+        <v>160</v>
+      </c>
+      <c r="S9" s="29">
         <v>44624.740624942133</v>
       </c>
       <c r="T9">
@@ -1854,13 +1860,13 @@
         <v>1061652466</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>140</v>
+        <v>28</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>135</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F10" s="13">
         <v>36.327932107867099</v>
@@ -1869,39 +1875,39 @@
         <v>127.4579937813</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J10" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q10" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-      <c r="P10" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q10" s="24" t="s">
-        <v>164</v>
-      </c>
       <c r="R10" t="s">
-        <v>165</v>
-      </c>
-      <c r="S10" s="30">
+        <v>160</v>
+      </c>
+      <c r="S10" s="29">
         <v>44625.740624942133</v>
       </c>
       <c r="T10">
@@ -1919,13 +1925,13 @@
         <v>8467000414</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>140</v>
+        <v>29</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>135</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F11" s="13">
         <v>36.3368889993097</v>
@@ -1934,16 +1940,16 @@
         <v>127.44704934171</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1957,16 +1963,16 @@
       <c r="O11">
         <v>1</v>
       </c>
-      <c r="P11" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q11" s="24" t="s">
-        <v>164</v>
+      <c r="P11" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q11" s="23" t="s">
+        <v>159</v>
       </c>
       <c r="R11" t="s">
-        <v>165</v>
-      </c>
-      <c r="S11" s="30">
+        <v>160</v>
+      </c>
+      <c r="S11" s="29">
         <v>44626.740624942133</v>
       </c>
       <c r="T11">
@@ -1984,13 +1990,13 @@
         <v>2018613311</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>141</v>
+        <v>30</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>136</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F12" s="13">
         <v>36.306882153402299</v>
@@ -1999,16 +2005,16 @@
         <v>127.456344417183</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -2022,16 +2028,16 @@
       <c r="O12">
         <v>1</v>
       </c>
-      <c r="P12" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q12" s="24" t="s">
-        <v>164</v>
+      <c r="P12" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q12" s="23" t="s">
+        <v>159</v>
       </c>
       <c r="R12" t="s">
-        <v>165</v>
-      </c>
-      <c r="S12" s="30">
+        <v>160</v>
+      </c>
+      <c r="S12" s="29">
         <v>44627.740624942133</v>
       </c>
       <c r="T12">
@@ -2049,13 +2055,13 @@
         <v>3053331288</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>141</v>
+        <v>31</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>136</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F13" s="13">
         <v>36.334329203708997</v>
@@ -2064,16 +2070,16 @@
         <v>127.447577682031</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -2087,16 +2093,16 @@
       <c r="O13">
         <v>1</v>
       </c>
-      <c r="P13" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q13" s="24" t="s">
-        <v>164</v>
+      <c r="P13" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q13" s="23" t="s">
+        <v>159</v>
       </c>
       <c r="R13" t="s">
-        <v>165</v>
-      </c>
-      <c r="S13" s="30">
+        <v>160</v>
+      </c>
+      <c r="S13" s="29">
         <v>44628.740624942133</v>
       </c>
       <c r="T13">
@@ -2114,13 +2120,13 @@
         <v>1500401753</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>141</v>
+        <v>32</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>136</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F14" s="13">
         <v>36.328131299613602</v>
@@ -2129,16 +2135,16 @@
         <v>127.45546322236601</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -2152,16 +2158,16 @@
       <c r="O14">
         <v>1</v>
       </c>
-      <c r="P14" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q14" s="24" t="s">
-        <v>164</v>
+      <c r="P14" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q14" s="23" t="s">
+        <v>159</v>
       </c>
       <c r="R14" t="s">
-        <v>165</v>
-      </c>
-      <c r="S14" s="30">
+        <v>160</v>
+      </c>
+      <c r="S14" s="29">
         <v>44629.740624942133</v>
       </c>
       <c r="T14">
@@ -2179,13 +2185,13 @@
         <v>3052292751</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>141</v>
+        <v>33</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>136</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F15" s="13">
         <v>36.331257197965101</v>
@@ -2194,39 +2200,39 @@
         <v>127.460804278647</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="J15" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>1</v>
-      </c>
-      <c r="P15" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q15" s="24" t="s">
-        <v>164</v>
+      <c r="Q15" s="23" t="s">
+        <v>159</v>
       </c>
       <c r="R15" t="s">
-        <v>165</v>
-      </c>
-      <c r="S15" s="30">
+        <v>160</v>
+      </c>
+      <c r="S15" s="29">
         <v>44630.740624942133</v>
       </c>
       <c r="T15">
@@ -2244,13 +2250,13 @@
         <v>3294300761</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>141</v>
+        <v>34</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>136</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F16" s="13">
         <v>36.331846167676403</v>
@@ -2259,16 +2265,16 @@
         <v>127.457197077629</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -2282,16 +2288,16 @@
       <c r="O16">
         <v>1</v>
       </c>
-      <c r="P16" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q16" s="24" t="s">
-        <v>164</v>
+      <c r="P16" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q16" s="23" t="s">
+        <v>159</v>
       </c>
       <c r="R16" t="s">
-        <v>165</v>
-      </c>
-      <c r="S16" s="30">
+        <v>160</v>
+      </c>
+      <c r="S16" s="29">
         <v>44631.740624942133</v>
       </c>
       <c r="T16">
@@ -2309,13 +2315,13 @@
         <v>8692200736</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>142</v>
+        <v>35</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>137</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F17" s="13">
         <v>36.333181794645597</v>
@@ -2324,16 +2330,16 @@
         <v>127.447093060744</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="L17">
         <v>1</v>
@@ -2347,16 +2353,16 @@
       <c r="O17">
         <v>1</v>
       </c>
-      <c r="P17" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q17" s="24" t="s">
-        <v>164</v>
+      <c r="P17" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q17" s="23" t="s">
+        <v>159</v>
       </c>
       <c r="R17" t="s">
-        <v>165</v>
-      </c>
-      <c r="S17" s="30">
+        <v>160</v>
+      </c>
+      <c r="S17" s="29">
         <v>44632.740624942133</v>
       </c>
       <c r="T17">
@@ -2374,13 +2380,13 @@
         <v>8781501615</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>142</v>
+        <v>36</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>137</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F18" s="13">
         <v>36.341151406664999</v>
@@ -2389,16 +2395,16 @@
         <v>127.44989876424199</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -2412,16 +2418,16 @@
       <c r="O18">
         <v>1</v>
       </c>
-      <c r="P18" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q18" s="24" t="s">
-        <v>134</v>
+      <c r="P18" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q18" s="23" t="s">
+        <v>129</v>
       </c>
       <c r="R18" t="s">
-        <v>165</v>
-      </c>
-      <c r="S18" s="30">
+        <v>160</v>
+      </c>
+      <c r="S18" s="29">
         <v>44633.740624942133</v>
       </c>
       <c r="T18">
@@ -2439,13 +2445,13 @@
         <v>6316500391</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>142</v>
+        <v>37</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>137</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F19" s="13">
         <v>36.337039141827098</v>
@@ -2454,16 +2460,16 @@
         <v>127.454688843857</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -2477,16 +2483,16 @@
       <c r="O19">
         <v>1</v>
       </c>
-      <c r="P19" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q19" s="24" t="s">
-        <v>164</v>
+      <c r="P19" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q19" s="23" t="s">
+        <v>159</v>
       </c>
       <c r="R19" t="s">
-        <v>165</v>
-      </c>
-      <c r="S19" s="30">
+        <v>160</v>
+      </c>
+      <c r="S19" s="29">
         <v>44634.740624942133</v>
       </c>
       <c r="T19">
@@ -2504,13 +2510,13 @@
         <v>6316500399</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>142</v>
+        <v>38</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>137</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F20" s="13">
         <v>36.323619763428503</v>
@@ -2519,16 +2525,16 @@
         <v>127.44679240903299</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="L20">
         <v>1</v>
@@ -2542,16 +2548,16 @@
       <c r="O20">
         <v>1</v>
       </c>
-      <c r="P20" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q20" s="24" t="s">
-        <v>135</v>
+      <c r="P20" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q20" s="23" t="s">
+        <v>130</v>
       </c>
       <c r="R20" t="s">
-        <v>165</v>
-      </c>
-      <c r="S20" s="30">
+        <v>160</v>
+      </c>
+      <c r="S20" s="29">
         <v>44635.740624942133</v>
       </c>
       <c r="T20">
@@ -2569,13 +2575,13 @@
         <v>6504500674</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>142</v>
+        <v>39</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>137</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F21" s="13">
         <v>36.351361706789397</v>
@@ -2584,16 +2590,16 @@
         <v>127.43673007318</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="L21">
         <v>1</v>
@@ -2607,16 +2613,16 @@
       <c r="O21">
         <v>1</v>
       </c>
-      <c r="P21" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q21" s="24" t="s">
-        <v>164</v>
+      <c r="P21" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q21" s="23" t="s">
+        <v>159</v>
       </c>
       <c r="R21" t="s">
-        <v>165</v>
-      </c>
-      <c r="S21" s="30">
+        <v>160</v>
+      </c>
+      <c r="S21" s="29">
         <v>44636.740624942133</v>
       </c>
       <c r="T21">
@@ -2634,13 +2640,13 @@
         <v>6130016555</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>143</v>
+        <v>40</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>138</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F22" s="13">
         <v>36.335582746038497</v>
@@ -2649,16 +2655,16 @@
         <v>127.43704191386701</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2672,16 +2678,16 @@
       <c r="O22">
         <v>1</v>
       </c>
-      <c r="P22" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q22" s="32" t="s">
-        <v>169</v>
+      <c r="P22" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q22" s="31" t="s">
+        <v>163</v>
       </c>
       <c r="R22" t="s">
-        <v>165</v>
-      </c>
-      <c r="S22" s="30">
+        <v>160</v>
+      </c>
+      <c r="S22" s="29">
         <v>44637.740624942133</v>
       </c>
       <c r="T22">
@@ -2699,13 +2705,13 @@
         <v>5694000179</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>143</v>
+        <v>41</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>138</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F23" s="13">
         <v>36.339176005662303</v>
@@ -2714,16 +2720,16 @@
         <v>127.44924494004999</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="L23">
         <v>1</v>
@@ -2737,16 +2743,16 @@
       <c r="O23">
         <v>1</v>
       </c>
-      <c r="P23" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q23" s="24" t="s">
-        <v>136</v>
+      <c r="P23" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q23" s="23" t="s">
+        <v>131</v>
       </c>
       <c r="R23" t="s">
-        <v>165</v>
-      </c>
-      <c r="S23" s="30">
+        <v>160</v>
+      </c>
+      <c r="S23" s="29">
         <v>44638.740624942133</v>
       </c>
       <c r="T23">
@@ -2764,13 +2770,13 @@
         <v>4190201930</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="28" t="s">
-        <v>143</v>
+        <v>42</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>138</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F24" s="13">
         <v>36.331987282710998</v>
@@ -2779,16 +2785,16 @@
         <v>127.44482064664</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2802,16 +2808,16 @@
       <c r="O24">
         <v>1</v>
       </c>
-      <c r="P24" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q24" s="32" t="s">
-        <v>170</v>
+      <c r="P24" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q24" s="31" t="s">
+        <v>164</v>
       </c>
       <c r="R24" t="s">
-        <v>165</v>
-      </c>
-      <c r="S24" s="30">
+        <v>160</v>
+      </c>
+      <c r="S24" s="29">
         <v>44639.740624942133</v>
       </c>
       <c r="T24">
@@ -2829,13 +2835,13 @@
         <v>5174700114</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="28" t="s">
-        <v>143</v>
+        <v>43</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>138</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F25" s="13">
         <v>36.3319998521429</v>
@@ -2844,39 +2850,39 @@
         <v>127.444001099682</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I25" s="18" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="J25" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q25" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="R25" t="s">
         <v>160</v>
       </c>
-      <c r="K25" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>1</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>1</v>
-      </c>
-      <c r="P25" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q25" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="R25" t="s">
-        <v>165</v>
-      </c>
-      <c r="S25" s="30">
+      <c r="S25" s="29">
         <v>44640.740624942133</v>
       </c>
       <c r="T25">
@@ -2894,13 +2900,13 @@
         <v>3210502026</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" s="29" t="s">
-        <v>143</v>
+        <v>44</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>138</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F26" s="14">
         <v>36.340989387699899</v>
@@ -2909,16 +2915,16 @@
         <v>127.444299736136</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="L26">
         <v>1</v>
@@ -2932,16 +2938,16 @@
       <c r="O26">
         <v>1</v>
       </c>
-      <c r="P26" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q26" s="26" t="s">
-        <v>138</v>
+      <c r="P26" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q26" s="25" t="s">
+        <v>133</v>
       </c>
       <c r="R26" t="s">
-        <v>165</v>
-      </c>
-      <c r="S26" s="30">
+        <v>160</v>
+      </c>
+      <c r="S26" s="29">
         <v>44641.740624942133</v>
       </c>
       <c r="T26">
@@ -3071,7 +3077,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="Q2" r:id="rId1"/>
+    <hyperlink ref="Q2" r:id="rId1" display="http://www.ebiga.co.kr_x000a_"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/realtime_shop_data.xlsx
+++ b/realtime_shop_data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="173">
   <si>
     <t>telephone</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -546,10 +546,6 @@
   </si>
   <si>
     <t>NULL</t>
-  </si>
-  <si>
-    <t>NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>TV방송정보
@@ -607,6 +603,10 @@
   <si>
     <t xml:space="preserve">대전 최고의 맛집 짬뽕 김서방
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>media/2022/03/02/fromis9.jpeg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -664,7 +664,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -846,6 +846,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE1E1E8"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFE1E1E8"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFE1E1E8"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFE1E1E8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -858,7 +873,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -957,6 +972,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1242,8 +1260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Y22" sqref="Y22"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1261,7 +1279,8 @@
     <col min="13" max="13" width="9.19921875" customWidth="1"/>
     <col min="15" max="15" width="10.09765625" customWidth="1"/>
     <col min="16" max="16" width="39" customWidth="1"/>
-    <col min="17" max="17" width="74.19921875" customWidth="1"/>
+    <col min="17" max="17" width="48.296875" customWidth="1"/>
+    <col min="18" max="18" width="57.796875" customWidth="1"/>
     <col min="19" max="19" width="17" customWidth="1"/>
     <col min="20" max="20" width="10" customWidth="1"/>
     <col min="21" max="21" width="9.69921875" customWidth="1"/>
@@ -1340,13 +1359,13 @@
         <v>3148623662</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D2" s="26" t="s">
         <v>134</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F2" s="12">
         <v>36.350272093501601</v>
@@ -1355,10 +1374,10 @@
         <v>127.435119232635</v>
       </c>
       <c r="H2" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>169</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>170</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>144</v>
@@ -1379,13 +1398,10 @@
         <v>1</v>
       </c>
       <c r="P2" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q2" s="30" t="s">
         <v>171</v>
-      </c>
-      <c r="Q2" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="R2" t="s">
-        <v>160</v>
       </c>
       <c r="S2" s="29">
         <v>44617.740624999999</v>
@@ -1397,7 +1413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="28.8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:21" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1443,13 +1459,8 @@
       <c r="O3">
         <v>1</v>
       </c>
-      <c r="P3" s="19" t="s">
-        <v>159</v>
-      </c>
+      <c r="P3" s="19"/>
       <c r="Q3" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="R3" t="s">
         <v>160</v>
       </c>
       <c r="S3" s="29">
@@ -1509,14 +1520,9 @@
         <v>1</v>
       </c>
       <c r="P4" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q4" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="R4" t="s">
-        <v>160</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="Q4" s="23"/>
       <c r="S4" s="29">
         <v>44619.740624942133</v>
       </c>
@@ -1576,12 +1582,7 @@
       <c r="P5" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="Q5" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="R5" t="s">
-        <v>160</v>
-      </c>
+      <c r="Q5" s="23"/>
       <c r="S5" s="29">
         <v>44620.740624942133</v>
       </c>
@@ -1641,12 +1642,7 @@
       <c r="P6" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="Q6" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="R6" t="s">
-        <v>160</v>
-      </c>
+      <c r="Q6" s="23"/>
       <c r="S6" s="29">
         <v>44621.740624942133</v>
       </c>
@@ -1709,9 +1705,6 @@
       <c r="Q7" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="R7" t="s">
-        <v>160</v>
-      </c>
       <c r="S7" s="29">
         <v>44622.740624942133</v>
       </c>
@@ -1722,7 +1715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="57.6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:21" ht="72" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1772,10 +1765,7 @@
         <v>118</v>
       </c>
       <c r="Q8" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="R8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="S8" s="29">
         <v>44623.740624942133</v>
@@ -1787,7 +1777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1834,14 +1824,11 @@
         <v>1</v>
       </c>
       <c r="P9" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q9" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="R9" t="s">
-        <v>160</v>
-      </c>
       <c r="S9" s="29">
         <v>44624.740624942133</v>
       </c>
@@ -1852,7 +1839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1898,14 +1885,10 @@
       <c r="O10">
         <v>1</v>
       </c>
-      <c r="P10" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q10" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="R10" t="s">
-        <v>160</v>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="33" t="s">
+        <v>172</v>
       </c>
       <c r="S10" s="29">
         <v>44625.740624942133</v>
@@ -1963,15 +1946,8 @@
       <c r="O11">
         <v>1</v>
       </c>
-      <c r="P11" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q11" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="R11" t="s">
-        <v>160</v>
-      </c>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="23"/>
       <c r="S11" s="29">
         <v>44626.740624942133</v>
       </c>
@@ -2028,15 +2004,8 @@
       <c r="O12">
         <v>1</v>
       </c>
-      <c r="P12" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q12" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="R12" t="s">
-        <v>160</v>
-      </c>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="23"/>
       <c r="S12" s="29">
         <v>44627.740624942133</v>
       </c>
@@ -2096,12 +2065,7 @@
       <c r="P13" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="Q13" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="R13" t="s">
-        <v>160</v>
-      </c>
+      <c r="Q13" s="23"/>
       <c r="S13" s="29">
         <v>44628.740624942133</v>
       </c>
@@ -2158,15 +2122,8 @@
       <c r="O14">
         <v>1</v>
       </c>
-      <c r="P14" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q14" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="R14" t="s">
-        <v>160</v>
-      </c>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="23"/>
       <c r="S14" s="29">
         <v>44629.740624942133</v>
       </c>
@@ -2223,15 +2180,8 @@
       <c r="O15">
         <v>1</v>
       </c>
-      <c r="P15" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q15" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="R15" t="s">
-        <v>160</v>
-      </c>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="23"/>
       <c r="S15" s="29">
         <v>44630.740624942133</v>
       </c>
@@ -2288,15 +2238,8 @@
       <c r="O16">
         <v>1</v>
       </c>
-      <c r="P16" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q16" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="R16" t="s">
-        <v>160</v>
-      </c>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="23"/>
       <c r="S16" s="29">
         <v>44631.740624942133</v>
       </c>
@@ -2353,15 +2296,8 @@
       <c r="O17">
         <v>1</v>
       </c>
-      <c r="P17" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q17" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="R17" t="s">
-        <v>160</v>
-      </c>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="23"/>
       <c r="S17" s="29">
         <v>44632.740624942133</v>
       </c>
@@ -2424,9 +2360,6 @@
       <c r="Q18" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="R18" t="s">
-        <v>160</v>
-      </c>
       <c r="S18" s="29">
         <v>44633.740624942133</v>
       </c>
@@ -2483,15 +2416,8 @@
       <c r="O19">
         <v>1</v>
       </c>
-      <c r="P19" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q19" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="R19" t="s">
-        <v>160</v>
-      </c>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="23"/>
       <c r="S19" s="29">
         <v>44634.740624942133</v>
       </c>
@@ -2554,9 +2480,6 @@
       <c r="Q20" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="R20" t="s">
-        <v>160</v>
-      </c>
       <c r="S20" s="29">
         <v>44635.740624942133</v>
       </c>
@@ -2619,9 +2542,6 @@
       <c r="Q21" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="R21" t="s">
-        <v>160</v>
-      </c>
       <c r="S21" s="29">
         <v>44636.740624942133</v>
       </c>
@@ -2632,7 +2552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="28.8" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:21" ht="57.6" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2682,10 +2602,7 @@
         <v>159</v>
       </c>
       <c r="Q22" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="R22" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="S22" s="29">
         <v>44637.740624942133</v>
@@ -2749,9 +2666,6 @@
       <c r="Q23" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="R23" t="s">
-        <v>160</v>
-      </c>
       <c r="S23" s="29">
         <v>44638.740624942133</v>
       </c>
@@ -2812,10 +2726,7 @@
         <v>124</v>
       </c>
       <c r="Q24" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="R24" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="S24" s="29">
         <v>44639.740624942133</v>
@@ -2879,9 +2790,6 @@
       <c r="Q25" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="R25" t="s">
-        <v>160</v>
-      </c>
       <c r="S25" s="29">
         <v>44640.740624942133</v>
       </c>
@@ -2943,9 +2851,6 @@
       </c>
       <c r="Q26" s="25" t="s">
         <v>133</v>
-      </c>
-      <c r="R26" t="s">
-        <v>160</v>
       </c>
       <c r="S26" s="29">
         <v>44641.740624942133</v>
@@ -3078,8 +2983,9 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="Q2" r:id="rId1" display="http://www.ebiga.co.kr_x000a_"/>
+    <hyperlink ref="R10" r:id="rId2" display="http://127.0.0.1:8000/media/media/2022/03/02/fromis9.jpeg"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/realtime_shop_data.xlsx
+++ b/realtime_shop_data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="174">
   <si>
     <t>telephone</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -607,6 +607,10 @@
   </si>
   <si>
     <t>media/2022/03/02/fromis9.jpeg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Null</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1260,8 +1264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView tabSelected="1" topLeftCell="L7" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1459,7 +1463,9 @@
       <c r="O3">
         <v>1</v>
       </c>
-      <c r="P3" s="19"/>
+      <c r="P3" s="19" t="s">
+        <v>173</v>
+      </c>
       <c r="Q3" s="31" t="s">
         <v>160</v>
       </c>
@@ -1522,7 +1528,9 @@
       <c r="P4" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="Q4" s="23"/>
+      <c r="Q4" s="19" t="s">
+        <v>173</v>
+      </c>
       <c r="S4" s="29">
         <v>44619.740624942133</v>
       </c>
@@ -1582,7 +1590,9 @@
       <c r="P5" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="Q5" s="23"/>
+      <c r="Q5" s="19" t="s">
+        <v>173</v>
+      </c>
       <c r="S5" s="29">
         <v>44620.740624942133</v>
       </c>
@@ -1642,7 +1652,9 @@
       <c r="P6" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="Q6" s="23"/>
+      <c r="Q6" s="19" t="s">
+        <v>173</v>
+      </c>
       <c r="S6" s="29">
         <v>44621.740624942133</v>
       </c>
@@ -1885,8 +1897,12 @@
       <c r="O10">
         <v>1</v>
       </c>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="23"/>
+      <c r="P10" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q10" s="19" t="s">
+        <v>173</v>
+      </c>
       <c r="R10" s="33" t="s">
         <v>172</v>
       </c>
@@ -1946,8 +1962,12 @@
       <c r="O11">
         <v>1</v>
       </c>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="23"/>
+      <c r="P11" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q11" s="19" t="s">
+        <v>173</v>
+      </c>
       <c r="S11" s="29">
         <v>44626.740624942133</v>
       </c>
@@ -2004,8 +2024,12 @@
       <c r="O12">
         <v>1</v>
       </c>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="23"/>
+      <c r="P12" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q12" s="19" t="s">
+        <v>173</v>
+      </c>
       <c r="S12" s="29">
         <v>44627.740624942133</v>
       </c>
@@ -2065,7 +2089,9 @@
       <c r="P13" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="Q13" s="23"/>
+      <c r="Q13" s="19" t="s">
+        <v>173</v>
+      </c>
       <c r="S13" s="29">
         <v>44628.740624942133</v>
       </c>
@@ -2122,8 +2148,12 @@
       <c r="O14">
         <v>1</v>
       </c>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="23"/>
+      <c r="P14" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q14" s="19" t="s">
+        <v>173</v>
+      </c>
       <c r="S14" s="29">
         <v>44629.740624942133</v>
       </c>
@@ -2180,8 +2210,12 @@
       <c r="O15">
         <v>1</v>
       </c>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="23"/>
+      <c r="P15" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q15" s="19" t="s">
+        <v>173</v>
+      </c>
       <c r="S15" s="29">
         <v>44630.740624942133</v>
       </c>
@@ -2238,8 +2272,12 @@
       <c r="O16">
         <v>1</v>
       </c>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="23"/>
+      <c r="P16" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q16" s="19" t="s">
+        <v>173</v>
+      </c>
       <c r="S16" s="29">
         <v>44631.740624942133</v>
       </c>
@@ -2296,8 +2334,12 @@
       <c r="O17">
         <v>1</v>
       </c>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="23"/>
+      <c r="P17" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q17" s="19" t="s">
+        <v>173</v>
+      </c>
       <c r="S17" s="29">
         <v>44632.740624942133</v>
       </c>
@@ -2416,8 +2458,12 @@
       <c r="O19">
         <v>1</v>
       </c>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="23"/>
+      <c r="P19" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q19" s="19" t="s">
+        <v>173</v>
+      </c>
       <c r="S19" s="29">
         <v>44634.740624942133</v>
       </c>
@@ -2599,7 +2645,7 @@
         <v>1</v>
       </c>
       <c r="P22" s="19" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="Q22" s="31" t="s">
         <v>162</v>

--- a/realtime_shop_data.xlsx
+++ b/realtime_shop_data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="174">
   <si>
     <t>telephone</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -607,6 +607,10 @@
   </si>
   <si>
     <t>media/2022/03/02/fromis9.jpeg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1260,8 +1264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1459,7 +1463,9 @@
       <c r="O3">
         <v>1</v>
       </c>
-      <c r="P3" s="19"/>
+      <c r="P3" s="19" t="s">
+        <v>173</v>
+      </c>
       <c r="Q3" s="31" t="s">
         <v>160</v>
       </c>
@@ -1522,7 +1528,9 @@
       <c r="P4" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="Q4" s="23"/>
+      <c r="Q4" s="19" t="s">
+        <v>173</v>
+      </c>
       <c r="S4" s="29">
         <v>44619.740624942133</v>
       </c>
@@ -1582,7 +1590,9 @@
       <c r="P5" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="Q5" s="23"/>
+      <c r="Q5" s="19" t="s">
+        <v>173</v>
+      </c>
       <c r="S5" s="29">
         <v>44620.740624942133</v>
       </c>
@@ -1642,7 +1652,9 @@
       <c r="P6" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="Q6" s="23"/>
+      <c r="Q6" s="19" t="s">
+        <v>173</v>
+      </c>
       <c r="S6" s="29">
         <v>44621.740624942133</v>
       </c>
@@ -1885,8 +1897,12 @@
       <c r="O10">
         <v>1</v>
       </c>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="23"/>
+      <c r="P10" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q10" s="19" t="s">
+        <v>173</v>
+      </c>
       <c r="R10" s="33" t="s">
         <v>172</v>
       </c>
@@ -1946,8 +1962,12 @@
       <c r="O11">
         <v>1</v>
       </c>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="23"/>
+      <c r="P11" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q11" s="19" t="s">
+        <v>173</v>
+      </c>
       <c r="S11" s="29">
         <v>44626.740624942133</v>
       </c>
@@ -2004,8 +2024,12 @@
       <c r="O12">
         <v>1</v>
       </c>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="23"/>
+      <c r="P12" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q12" s="19" t="s">
+        <v>173</v>
+      </c>
       <c r="S12" s="29">
         <v>44627.740624942133</v>
       </c>
@@ -2065,7 +2089,9 @@
       <c r="P13" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="Q13" s="23"/>
+      <c r="Q13" s="19" t="s">
+        <v>173</v>
+      </c>
       <c r="S13" s="29">
         <v>44628.740624942133</v>
       </c>
@@ -2122,8 +2148,12 @@
       <c r="O14">
         <v>1</v>
       </c>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="23"/>
+      <c r="P14" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q14" s="19" t="s">
+        <v>173</v>
+      </c>
       <c r="S14" s="29">
         <v>44629.740624942133</v>
       </c>
@@ -2180,8 +2210,12 @@
       <c r="O15">
         <v>1</v>
       </c>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="23"/>
+      <c r="P15" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q15" s="19" t="s">
+        <v>173</v>
+      </c>
       <c r="S15" s="29">
         <v>44630.740624942133</v>
       </c>
@@ -2238,8 +2272,12 @@
       <c r="O16">
         <v>1</v>
       </c>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="23"/>
+      <c r="P16" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q16" s="19" t="s">
+        <v>173</v>
+      </c>
       <c r="S16" s="29">
         <v>44631.740624942133</v>
       </c>
@@ -2296,8 +2334,12 @@
       <c r="O17">
         <v>1</v>
       </c>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="23"/>
+      <c r="P17" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q17" s="19" t="s">
+        <v>173</v>
+      </c>
       <c r="S17" s="29">
         <v>44632.740624942133</v>
       </c>
@@ -2416,8 +2458,12 @@
       <c r="O19">
         <v>1</v>
       </c>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="23"/>
+      <c r="P19" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q19" s="19" t="s">
+        <v>173</v>
+      </c>
       <c r="S19" s="29">
         <v>44634.740624942133</v>
       </c>
